--- a/slide-o-matic.xlsx
+++ b/slide-o-matic.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bensullins/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bensullins/PycharmProjects/slide-o-matic/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41060" yWindow="2300" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="6100" yWindow="2660" windowWidth="28720" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>0 = title
+2 = section header</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>module_num</t>
   </si>
@@ -35,62 +59,104 @@
     <t>slide_layout</t>
   </si>
   <si>
-    <t>What is D3</t>
-  </si>
-  <si>
-    <t>D3 History</t>
-  </si>
-  <si>
-    <t>D3 Definition</t>
-  </si>
-  <si>
-    <t>D3 Examples</t>
-  </si>
-  <si>
     <t>Where to Find More</t>
   </si>
   <si>
-    <t>Why use D3?</t>
-  </si>
-  <si>
-    <t>D3 Compatibility</t>
-  </si>
-  <si>
-    <t>D3 Performance</t>
-  </si>
-  <si>
-    <t>When to Use D3</t>
-  </si>
-  <si>
-    <t>Web App Example</t>
-  </si>
-  <si>
-    <t>Data Journalism Example</t>
-  </si>
-  <si>
-    <t>Data Scientist Example</t>
-  </si>
-  <si>
-    <t>D3 Architecture</t>
-  </si>
-  <si>
-    <t>D3 Library Components</t>
-  </si>
-  <si>
-    <t>SVG Elements</t>
-  </si>
-  <si>
-    <t>Effect on HTML</t>
-  </si>
-  <si>
     <t>json</t>
+  </si>
+  <si>
+    <t>What's New in Tableau 10</t>
+  </si>
+  <si>
+    <t>Course Overview</t>
+  </si>
+  <si>
+    <t>Relationship to Existing Courses</t>
+  </si>
+  <si>
+    <t>Our Story</t>
+  </si>
+  <si>
+    <t>User Interface Updates</t>
+  </si>
+  <si>
+    <t>Reviewing the User Interface</t>
+  </si>
+  <si>
+    <t>Dashboaring for Mobile</t>
+  </si>
+  <si>
+    <t>Preparing Your Data</t>
+  </si>
+  <si>
+    <t>Joining Across Databases</t>
+  </si>
+  <si>
+    <t>Connecting to Google Sheets</t>
+  </si>
+  <si>
+    <t>Connecting to QuickBooks</t>
+  </si>
+  <si>
+    <t>Combinging Queries with Unioin</t>
+  </si>
+  <si>
+    <t>Analyzing Your Data</t>
+  </si>
+  <si>
+    <t>Customizing Territories</t>
+  </si>
+  <si>
+    <t>Filtering Across Data Sources</t>
+  </si>
+  <si>
+    <t>Highlighting Data with Search</t>
+  </si>
+  <si>
+    <t>Sizing Marks</t>
+  </si>
+  <si>
+    <t>Calculating Radial Distance</t>
+  </si>
+  <si>
+    <t>Mapping New Areas</t>
+  </si>
+  <si>
+    <t>Advancing Your Analytics</t>
+  </si>
+  <si>
+    <t>Clustering Analysis</t>
+  </si>
+  <si>
+    <t>Updating Table Calculations</t>
+  </si>
+  <si>
+    <t>Specifying a Level of Detail in Calculations</t>
+  </si>
+  <si>
+    <t>Integrating Python Machine Learning</t>
+  </si>
+  <si>
+    <t>Sharing Your Insights</t>
+  </si>
+  <si>
+    <t>Publishing Visualizations to Tableau Server</t>
+  </si>
+  <si>
+    <t>Subscribing Users to Your Visualizations</t>
+  </si>
+  <si>
+    <t>Viewing on Mobile</t>
+  </si>
+  <si>
+    <t>Analyzing Usage on Tableau Server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,6 +180,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,8 +204,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -142,11 +220,17 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,11 +505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -454,14 +538,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="str">
         <f>"{"""&amp;$A$1&amp;""":"&amp;A2&amp;", """&amp;$B$1&amp;""":"""&amp;B2&amp;""", """&amp;$C$1&amp;""":"&amp;C2&amp;"},"</f>
-        <v>{"module_num":1, "slide_title":"What is D3", "slide_layout":0},</v>
+        <v>{"module_num":1, "slide_title":"What's New in Tableau 10", "slide_layout":0},</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -469,14 +553,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D20" si="0">"{"""&amp;$A$1&amp;""":"&amp;A3&amp;", """&amp;$B$1&amp;""":"""&amp;B3&amp;""", """&amp;$C$1&amp;""":"&amp;C3&amp;"},"</f>
-        <v>{"module_num":1, "slide_title":"D3 History", "slide_layout":2},</v>
+        <f t="shared" ref="D3:D5" si="0">"{"""&amp;$A$1&amp;""":"&amp;A3&amp;", """&amp;$B$1&amp;""":"""&amp;B3&amp;""", """&amp;$C$1&amp;""":"&amp;C3&amp;"},"</f>
+        <v>{"module_num":1, "slide_title":"Course Overview", "slide_layout":2},</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -484,14 +568,14 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>{"module_num":1, "slide_title":"D3 Definition", "slide_layout":2},</v>
+        <v>{"module_num":1, "slide_title":"Relationship to Existing Courses", "slide_layout":2},</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -499,14 +583,14 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>{"module_num":1, "slide_title":"D3 Examples", "slide_layout":2},</v>
+        <v>{"module_num":1, "slide_title":"Our Story", "slide_layout":2},</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -514,13 +598,13 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D6:D34" si="1">"{"""&amp;$A$1&amp;""":"&amp;A6&amp;", """&amp;$B$1&amp;""":"""&amp;B6&amp;""", """&amp;$C$1&amp;""":"&amp;C6&amp;"},"</f>
         <v>{"module_num":1, "slide_title":"Where to Find More", "slide_layout":2},</v>
       </c>
     </row>
@@ -529,14 +613,14 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":2, "slide_title":"Why use D3?", "slide_layout":0},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":2, "slide_title":"User Interface Updates", "slide_layout":0},</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -544,14 +628,14 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":2, "slide_title":"D3 Compatibility", "slide_layout":2},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":2, "slide_title":"Reviewing the User Interface", "slide_layout":2},</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -559,14 +643,14 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":2, "slide_title":"D3 Performance", "slide_layout":2},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":2, "slide_title":"Dashboaring for Mobile", "slide_layout":2},</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -574,13 +658,13 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>{"module_num":2, "slide_title":"Where to Find More", "slide_layout":2},</v>
       </c>
     </row>
@@ -589,14 +673,14 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":3, "slide_title":"When to Use D3", "slide_layout":0},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":3, "slide_title":"Preparing Your Data", "slide_layout":0},</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -604,14 +688,14 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":3, "slide_title":"Web App Example", "slide_layout":2},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":3, "slide_title":"Joining Across Databases", "slide_layout":2},</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -619,14 +703,14 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":3, "slide_title":"Data Journalism Example", "slide_layout":2},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":3, "slide_title":"Connecting to Google Sheets", "slide_layout":2},</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -634,14 +718,14 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":3, "slide_title":"Data Scientist Example", "slide_layout":2},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":3, "slide_title":"Connecting to QuickBooks", "slide_layout":2},</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -649,29 +733,29 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":3, "slide_title":"Where to Find More", "slide_layout":2},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":3, "slide_title":"Combinging Queries with Unioin", "slide_layout":2},</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":4, "slide_title":"D3 Architecture", "slide_layout":0},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":3, "slide_title":"Where to Find More", "slide_layout":2},</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -679,14 +763,14 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":4, "slide_title":"D3 Library Components", "slide_layout":2},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":4, "slide_title":"Analyzing Your Data", "slide_layout":0},</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -694,14 +778,14 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":4, "slide_title":"SVG Elements", "slide_layout":2},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":4, "slide_title":"Customizing Territories", "slide_layout":2},</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -709,14 +793,14 @@
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":4, "slide_title":"Effect on HTML", "slide_layout":2},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":4, "slide_title":"Filtering Across Data Sources", "slide_layout":2},</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -724,18 +808,229 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v>{"module_num":4, "slide_title":"Where to Find More", "slide_layout":2},</v>
+        <f t="shared" si="1"/>
+        <v>{"module_num":4, "slide_title":"Highlighting Data with Search", "slide_layout":2},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":4, "slide_title":"Sizing Marks", "slide_layout":2},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":4, "slide_title":"Calculating Radial Distance", "slide_layout":2},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":4, "slide_title":"Mapping New Areas", "slide_layout":2},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":5, "slide_title":"Advancing Your Analytics", "slide_layout":0},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":5, "slide_title":"Clustering Analysis", "slide_layout":2},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":5, "slide_title":"Updating Table Calculations", "slide_layout":2},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":5, "slide_title":"Specifying a Level of Detail in Calculations", "slide_layout":2},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":5, "slide_title":"Integrating Python Machine Learning", "slide_layout":2},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":5, "slide_title":"Where to Find More", "slide_layout":2},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":6, "slide_title":"Sharing Your Insights", "slide_layout":0},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":6, "slide_title":"Publishing Visualizations to Tableau Server", "slide_layout":2},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":6, "slide_title":"Subscribing Users to Your Visualizations", "slide_layout":2},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":6, "slide_title":"Viewing on Mobile", "slide_layout":2},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>{"module_num":6, "slide_title":"Analyzing Usage on Tableau Server", "slide_layout":2},</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>